--- a/new_Спецификация Tissot Daghaya.xlsx
+++ b/new_Спецификация Tissot Daghaya.xlsx
@@ -1275,12 +1275,12 @@
       </c>
       <c r="F10" s="55" t="inlineStr">
         <is>
-          <t>Сталь</t>
+          <t>сталь 316L</t>
         </is>
       </c>
       <c r="G10" s="55" t="inlineStr">
         <is>
-          <t>Сталь</t>
+          <t>Классическая форма корпуса и строгий циферблат – эти часы идеально дополнят ваш строгий офисный костюм. Высококачественные швейцарские кварцевые наручные часы T-Classic Tradition Thin. Круглый стальной корпус. Острые стрелки в стиле Alpha. Метки в виде римских цифр и штрихов. Рифленая заводная головка. Надежный стальной браслет с раскладывающейся застежкой.</t>
         </is>
       </c>
       <c r="H10" s="55" t="inlineStr">
@@ -1290,12 +1290,12 @@
       </c>
       <c r="I10" s="56" t="inlineStr">
         <is>
-          <t>Кварцевый</t>
+          <t>кварцевый</t>
         </is>
       </c>
       <c r="J10" s="55" t="inlineStr">
         <is>
-          <t>Стальной браслет</t>
+          <t>стальной 316L</t>
         </is>
       </c>
       <c r="K10" s="55" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="L10" s="55" t="inlineStr">
         <is>
-          <t>Сапфировое</t>
+          <t>сапфировое</t>
         </is>
       </c>
       <c r="M10" s="58" t="n">
@@ -1326,16 +1326,8 @@
         <f>Q10*D10</f>
         <v/>
       </c>
-      <c r="S10" s="55" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="T10" s="55" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="S10" s="55" t="inlineStr"/>
+      <c r="T10" s="55" t="inlineStr"/>
       <c r="U10" s="55" t="n"/>
       <c r="V10" s="57" t="inlineStr">
         <is>
@@ -1376,12 +1368,12 @@
       </c>
       <c r="F11" s="55" t="inlineStr">
         <is>
-          <t>Сталь</t>
+          <t>сталь 316L</t>
         </is>
       </c>
       <c r="G11" s="55" t="inlineStr">
         <is>
-          <t>Сталь</t>
+          <t>Эти часы представляют собой редкое для классических часов сочетание простоты и элегантности. Циферблат чистый с углублением в центре. Внешнее сатинированное покрытие в виде солнечных лучей и внутреннее спиральное покрытие придают определенную глубину. T-Classic Carson Premium Lady. Кварцевые оригинальные наручные часы. Ультратонкие. В механизме 3 камня. Функция индикации заряда (EOL). Круглый стальной корпус c полированной поверхностью. Циферблат выполнен по технологии Sunray (солнечные лучи). Узкие листовидные стрелки в стиле Feuille. Метки в виде римских цифр. Окошко даты находится в положении 6 часов. Рифленая заводная головка. Удобный кожаный ремешок с классической застежкой.</t>
         </is>
       </c>
       <c r="H11" s="55" t="inlineStr">
@@ -1391,12 +1383,12 @@
       </c>
       <c r="I11" s="56" t="inlineStr">
         <is>
-          <t>Кварцевый</t>
+          <t>кварцевый</t>
         </is>
       </c>
       <c r="J11" s="55" t="inlineStr">
         <is>
-          <t>Ремешок из телячьей кожи</t>
+          <t>кожаный ремешок с тиснением под кожу аллигатора</t>
         </is>
       </c>
       <c r="K11" s="55" t="inlineStr">
@@ -1406,7 +1398,7 @@
       </c>
       <c r="L11" s="55" t="inlineStr">
         <is>
-          <t>Сапфировое</t>
+          <t>сапфировое</t>
         </is>
       </c>
       <c r="M11" s="58" t="n">
@@ -1429,14 +1421,10 @@
       </c>
       <c r="S11" s="55" t="inlineStr">
         <is>
-          <t>Дата - число; Индикация заряда</t>
-        </is>
-      </c>
-      <c r="T11" s="55" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+          <t>число</t>
+        </is>
+      </c>
+      <c r="T11" s="55" t="inlineStr"/>
       <c r="U11" s="74" t="n"/>
       <c r="V11" s="57" t="inlineStr">
         <is>
@@ -1477,12 +1465,12 @@
       </c>
       <c r="F12" s="55" t="inlineStr">
         <is>
-          <t>Сталь</t>
+          <t>сталь 316L</t>
         </is>
       </c>
       <c r="G12" s="55" t="inlineStr">
         <is>
-          <t>Сталь, стекло</t>
+          <t>Легкий дизайн часов поможет вам отдохнуть от блеска и гламура, но не забывая о стиле и элегантности. Le Locle - не только имя городка в швейцарских горах Юра, родины компании Tissot, но и название невероятно популярного семейства автоматических часов, которые отличаются изысканной элегантностью и такими непременными деталями, как римские цифры и традиционная марка «Le Locle», с изысканным росчерком подтверждающая достоверность и качество классического шика. Le Locle. Женские наручные часы. В механизме 25 камней, частота 28800 полуколебаний в час. Запас хода 38 часов. Круглый стальной корпус. Циферблат украшен узором Clous de Paris. Листовидные стрелки в стиле Feuille. Метки в виде римских цифр и штрихов. Окошко даты находится в положении 3 часа. Рифленая заводная головка. Прозрачная задняя крышка. Надежный стальной браслет с застежкой-бабочкой.</t>
         </is>
       </c>
       <c r="H12" s="55" t="inlineStr">
@@ -1492,12 +1480,12 @@
       </c>
       <c r="I12" s="56" t="inlineStr">
         <is>
-          <t>Механический с автоподзаводом</t>
+          <t>механический с автоподзаводом</t>
         </is>
       </c>
       <c r="J12" s="55" t="inlineStr">
         <is>
-          <t>Стальной браслет</t>
+          <t>стальной 316L</t>
         </is>
       </c>
       <c r="K12" s="55" t="inlineStr">
@@ -1507,7 +1495,7 @@
       </c>
       <c r="L12" s="55" t="inlineStr">
         <is>
-          <t>Сапфировое</t>
+          <t>сапфировое</t>
         </is>
       </c>
       <c r="M12" s="58" t="n">
@@ -1530,14 +1518,10 @@
       </c>
       <c r="S12" s="55" t="inlineStr">
         <is>
-          <t>Дата - число</t>
-        </is>
-      </c>
-      <c r="T12" s="55" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+          <t>число</t>
+        </is>
+      </c>
+      <c r="T12" s="55" t="inlineStr"/>
       <c r="U12" s="55" t="n"/>
       <c r="V12" s="57" t="inlineStr">
         <is>
@@ -1578,12 +1562,12 @@
       </c>
       <c r="F13" s="55" t="inlineStr">
         <is>
-          <t>Сталь</t>
+          <t>сталь 316L</t>
         </is>
       </c>
       <c r="G13" s="55" t="inlineStr">
         <is>
-          <t>Сталь, стекло</t>
+          <t>Легкий дизайн часов поможет вам отдохнуть от блеска и гламура, но не забывая о стиле и элегантности. Le Locle - не только имя городка в швейцарских горах Юра, родины компании Tissot, но и название невероятно популярного семейства автоматических часов, которые отличаются изысканной элегантностью и такими непременными деталями, как римские цифры и традиционная марка «Le Locle», с изысканным росчерком подтверждающая достоверность и качество классического шика. Женские наручные часы Le Locle. В механизме 25 камней, частота 28800 полуколебаний в час. Запас хода 38 часов. Круглый стальной корпус. Перламутровый циферблат с накладными метками в виде точек, украшенных бриллиантами. Листовидные стрелки в стиле Feuille. Окошко даты находится в положении 3 часа. Рифленая заводная головка. Прозрачная задняя крышка. Надежный стальной браслет с застежкой-бабочкой.</t>
         </is>
       </c>
       <c r="H13" s="55" t="inlineStr">
@@ -1593,12 +1577,12 @@
       </c>
       <c r="I13" s="56" t="inlineStr">
         <is>
-          <t>Механический с автоподзаводом</t>
+          <t>механический с автоподзаводом</t>
         </is>
       </c>
       <c r="J13" s="55" t="inlineStr">
         <is>
-          <t>Стальной браслет</t>
+          <t>стальной 316L</t>
         </is>
       </c>
       <c r="K13" s="55" t="inlineStr">
@@ -1608,7 +1592,7 @@
       </c>
       <c r="L13" s="55" t="inlineStr">
         <is>
-          <t>Сапфировое</t>
+          <t>сапфировое</t>
         </is>
       </c>
       <c r="M13" s="58" t="n">
@@ -1631,12 +1615,12 @@
       </c>
       <c r="S13" s="55" t="inlineStr">
         <is>
-          <t>Дата - число</t>
+          <t>число</t>
         </is>
       </c>
       <c r="T13" s="55" t="inlineStr">
         <is>
-          <t>Бриллианты, Перламутр</t>
+          <t>циферблат украшен 12 бриллиантами 0,0456К</t>
         </is>
       </c>
       <c r="U13" s="60">
@@ -1684,12 +1668,12 @@
       </c>
       <c r="F14" s="55" t="inlineStr">
         <is>
-          <t>Сталь, PVD покрытие из золота</t>
+          <t>сталь 316L с частичным PVD покрытием</t>
         </is>
       </c>
       <c r="G14" s="55" t="inlineStr">
         <is>
-          <t>Сталь, стекло</t>
+          <t>Эти часы придутся по вкусу ценителям настоящих швейцарских часов. Идеальный выбор для современного ритма жизни. Le Locle - не только имя городка в швейцарских горах Юра, родины компании Tissot, но и название невероятно популярного семейства автоматических часов, которые отличаются изысканной элегантностью и такими непременными деталями, как римские цифры и традиционная марка «Le Locle», с изысканным росчерком подтверждающая достоверность и качество классического шика. Le Locle. Надежные швейцарские автоматические наручные часы. В механизме 25 камней, частота 28800 полуколебаний в час. Запас хода 42 часа. Круглый стальной корпус. Циферблат украшен гильоше. Листовидные стрелки в стиле Feuille. Секундная стрелка вынесена на отдельный циферблат. Метки в виде римских цифр и штрихов. Окошко даты находится в положении 3 часа. Рифленая заводная головка. Прозрачная задняя крышка. Надежный стальной браслет.</t>
         </is>
       </c>
       <c r="H14" s="55" t="inlineStr">
@@ -1699,12 +1683,12 @@
       </c>
       <c r="I14" s="56" t="inlineStr">
         <is>
-          <t>Механический с автоподзаводом</t>
+          <t>механический с автоподзаводом</t>
         </is>
       </c>
       <c r="J14" s="55" t="inlineStr">
         <is>
-          <t>Стальной браслет с PVD покрытием из золота</t>
+          <t>стальной 316L с частичным PVD покрытием</t>
         </is>
       </c>
       <c r="K14" s="55" t="inlineStr">
@@ -1714,7 +1698,7 @@
       </c>
       <c r="L14" s="55" t="inlineStr">
         <is>
-          <t>Сапфировое</t>
+          <t>сапфировое</t>
         </is>
       </c>
       <c r="M14" s="58" t="n">
@@ -1737,14 +1721,10 @@
       </c>
       <c r="S14" s="55" t="inlineStr">
         <is>
-          <t>Дата - число</t>
-        </is>
-      </c>
-      <c r="T14" s="55" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+          <t>число</t>
+        </is>
+      </c>
+      <c r="T14" s="55" t="inlineStr"/>
       <c r="U14" s="55" t="n"/>
       <c r="V14" s="57" t="inlineStr">
         <is>
@@ -1785,12 +1765,12 @@
       </c>
       <c r="F15" s="55" t="inlineStr">
         <is>
-          <t>Сталь</t>
+          <t>сталь 316L</t>
         </is>
       </c>
       <c r="G15" s="55" t="inlineStr">
         <is>
-          <t>Сталь</t>
+          <t>Прекрасный вариант часов для харизматичных женщин. Деталь, отражающая вашу индивидуальность. Женские наручные часы Couturier. Круглый стальной корпус. Контурные стрелки в стиле Skeleton. Секундная стрелка отсутствует. Накладные метки в виде штрихов. Надежный стальной браслет с раскладывающейся застежкой.</t>
         </is>
       </c>
       <c r="H15" s="55" t="inlineStr">
@@ -1800,12 +1780,12 @@
       </c>
       <c r="I15" s="55" t="inlineStr">
         <is>
-          <t>Кварцевый</t>
+          <t>кварцевый</t>
         </is>
       </c>
       <c r="J15" s="55" t="inlineStr">
         <is>
-          <t>Стальной браслет</t>
+          <t>стальной 316L</t>
         </is>
       </c>
       <c r="K15" s="55" t="inlineStr">
@@ -1815,7 +1795,7 @@
       </c>
       <c r="L15" s="55" t="inlineStr">
         <is>
-          <t>Сапфировое</t>
+          <t>сапфировое</t>
         </is>
       </c>
       <c r="M15" s="58" t="n">
@@ -1836,16 +1816,8 @@
         <f>Q15*D15</f>
         <v/>
       </c>
-      <c r="S15" s="55" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="T15" s="55" t="inlineStr">
-        <is>
-          <t>Перламутр</t>
-        </is>
-      </c>
+      <c r="S15" s="55" t="inlineStr"/>
+      <c r="T15" s="55" t="inlineStr"/>
       <c r="U15" s="55" t="n"/>
       <c r="V15" s="57" t="inlineStr">
         <is>
@@ -1886,12 +1858,12 @@
       </c>
       <c r="F16" s="55" t="inlineStr">
         <is>
-          <t>Сталь</t>
+          <t>сталь 316L</t>
         </is>
       </c>
       <c r="G16" s="55" t="inlineStr">
         <is>
-          <t>Сталь</t>
+          <t>Эти часы по достоинству оценят девушки, которые мечтали о стильном, функциональном и оригинальном аксессуаре. Женские наручные часы Couturier. Круглый стальной корпус. Контурные стрелки в стиле Skeleton. Секундная стрелка отсутствует. Накладные метки в виде штрихов. Удобный кожаный ремешок с раскладывающейся застежкой.</t>
         </is>
       </c>
       <c r="H16" s="55" t="inlineStr">
@@ -1901,12 +1873,12 @@
       </c>
       <c r="I16" s="56" t="inlineStr">
         <is>
-          <t>Кварцевый</t>
+          <t>кварцевый</t>
         </is>
       </c>
       <c r="J16" s="55" t="inlineStr">
         <is>
-          <t>Ремешок из телячьей кожи</t>
+          <t>кожаный ремешок</t>
         </is>
       </c>
       <c r="K16" s="55" t="inlineStr">
@@ -1916,7 +1888,7 @@
       </c>
       <c r="L16" s="55" t="inlineStr">
         <is>
-          <t>Сапфировое</t>
+          <t>сапфировое</t>
         </is>
       </c>
       <c r="M16" s="58" t="n">
@@ -1937,16 +1909,8 @@
         <f>Q16*D16</f>
         <v/>
       </c>
-      <c r="S16" s="55" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="T16" s="55" t="inlineStr">
-        <is>
-          <t>Перламутр</t>
-        </is>
-      </c>
+      <c r="S16" s="55" t="inlineStr"/>
+      <c r="T16" s="55" t="inlineStr"/>
       <c r="U16" s="55" t="n"/>
       <c r="V16" s="57" t="inlineStr">
         <is>
@@ -1987,12 +1951,12 @@
       </c>
       <c r="F17" s="55" t="inlineStr">
         <is>
-          <t>Сталь</t>
+          <t>сталь 316L</t>
         </is>
       </c>
       <c r="G17" s="55" t="inlineStr">
         <is>
-          <t>Сталь</t>
+          <t>Обладающие сдержанным дизайном, часы по праву претендуют на главную роль в вашем повседневном образе. Кварцевые мужские наручные часы T-Trend Couturier. Круглый стальной корпус. Накладные метки в виде штрихов. Контурные стрелки в стиле Skeleton. Секундная стрелка отсутствует. Удобный кожаный ремешок с классической застежкой.</t>
         </is>
       </c>
       <c r="H17" s="55" t="inlineStr">
@@ -2002,12 +1966,12 @@
       </c>
       <c r="I17" s="56" t="inlineStr">
         <is>
-          <t>Кварцевый</t>
+          <t>кварцевый</t>
         </is>
       </c>
       <c r="J17" s="55" t="inlineStr">
         <is>
-          <t>Ремешок из телячьей кожи</t>
+          <t>кожаный ремешок</t>
         </is>
       </c>
       <c r="K17" s="55" t="inlineStr">
@@ -2017,7 +1981,7 @@
       </c>
       <c r="L17" s="55" t="inlineStr">
         <is>
-          <t>Сапфировое</t>
+          <t>сапфировое</t>
         </is>
       </c>
       <c r="M17" s="58" t="n">
@@ -2038,16 +2002,8 @@
         <f>Q17*D17</f>
         <v/>
       </c>
-      <c r="S17" s="55" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="T17" s="55" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="S17" s="55" t="inlineStr"/>
+      <c r="T17" s="55" t="inlineStr"/>
       <c r="U17" s="55" t="n"/>
       <c r="V17" s="57" t="inlineStr">
         <is>
@@ -2088,12 +2044,12 @@
       </c>
       <c r="F18" s="55" t="inlineStr">
         <is>
-          <t>Сталь</t>
+          <t>сталь 316L с частичным PVD покрытием</t>
         </is>
       </c>
       <c r="G18" s="55" t="inlineStr">
         <is>
-          <t>Сталь</t>
+          <t>Стильные многофункциональные часы, которые не ограничивают ваши возможности. Интерактивные достижения вашего времени. Гибридные наручные мужские многофункциональные часы T-Touch Sailing Touch Men's Chronograph. Круглый стальной корпус. Функция индикации заряда (EOL). Нижнюю треть экрана занимает цифровой дисплей. Метки в виде штрихов. Надежный каучуковый ремешок с раскладывающейся застежкой.</t>
         </is>
       </c>
       <c r="H18" s="55" t="inlineStr">
@@ -2103,12 +2059,12 @@
       </c>
       <c r="I18" s="56" t="inlineStr">
         <is>
-          <t>Кварцевый</t>
+          <t>кварцевый</t>
         </is>
       </c>
       <c r="J18" s="55" t="inlineStr">
         <is>
-          <t>Каучуковый ремешок</t>
+          <t>каучуковый</t>
         </is>
       </c>
       <c r="K18" s="55" t="inlineStr">
@@ -2118,7 +2074,7 @@
       </c>
       <c r="L18" s="55" t="inlineStr">
         <is>
-          <t>Сапфировое</t>
+          <t>сапфировое</t>
         </is>
       </c>
       <c r="M18" s="58" t="n">
@@ -2141,14 +2097,10 @@
       </c>
       <c r="S18" s="55" t="inlineStr">
         <is>
-          <t>Вечный календарь; Будильник; Индикация заряда</t>
-        </is>
-      </c>
-      <c r="T18" s="55" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+          <t>число, день недели, будильник</t>
+        </is>
+      </c>
+      <c r="T18" s="55" t="inlineStr"/>
       <c r="U18" s="55" t="n"/>
       <c r="V18" s="57" t="inlineStr">
         <is>
@@ -2189,12 +2141,12 @@
       </c>
       <c r="F19" s="55" t="inlineStr">
         <is>
-          <t>Сталь</t>
+          <t>сталь 316L с частичным PVD покрытием</t>
         </is>
       </c>
       <c r="G19" s="55" t="inlineStr">
         <is>
-          <t>Сталь</t>
+          <t>Стильные и многофункциональные часы, которые расширят возможности вашего общения. Часы для современных и активных! Гибридные наручные мужские многофункциональные часы T-Touch Sailing Touch Men's Chronograph. Круглый стальной корпус. Функция индикации заряда (EOL). Нижнюю треть экрана занимает цифровой дисплей. Метки в виде штрихов. Надежный каучуковый ремешок с раскладывающейся застежкой.</t>
         </is>
       </c>
       <c r="H19" s="55" t="inlineStr">
@@ -2204,12 +2156,12 @@
       </c>
       <c r="I19" s="56" t="inlineStr">
         <is>
-          <t>Кварцевый</t>
+          <t>кварцевый</t>
         </is>
       </c>
       <c r="J19" s="55" t="inlineStr">
         <is>
-          <t>Каучуковый ремешок</t>
+          <t>каучуковый</t>
         </is>
       </c>
       <c r="K19" s="55" t="inlineStr">
@@ -2219,7 +2171,7 @@
       </c>
       <c r="L19" s="55" t="inlineStr">
         <is>
-          <t>Сапфировое</t>
+          <t>сапфировое</t>
         </is>
       </c>
       <c r="M19" s="58" t="n">
@@ -2242,14 +2194,10 @@
       </c>
       <c r="S19" s="55" t="inlineStr">
         <is>
-          <t>Вечный календарь; Будильник; Индикация заряда</t>
-        </is>
-      </c>
-      <c r="T19" s="55" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+          <t>число, день недели, будильник</t>
+        </is>
+      </c>
+      <c r="T19" s="55" t="inlineStr"/>
       <c r="U19" s="55" t="n"/>
       <c r="V19" s="57" t="inlineStr">
         <is>
@@ -2290,12 +2238,12 @@
       </c>
       <c r="F20" s="55" t="inlineStr">
         <is>
-          <t>Сталь, PVD покрытие из золота</t>
+          <t>сталь 316L с розовым PVD покрытием</t>
         </is>
       </c>
       <c r="G20" s="55" t="inlineStr">
         <is>
-          <t>Сталь</t>
+          <t>Отдавая дань уважения маленьким женским часам Tissot 1960-х годов, Tissot Lovely Square - это абсолютно женственное творение, рассчитанное на самые изящные запястья. При деликатных размерах 2 x 2 см часы имеют смелый квадратный дизайн, а их атласный гладкий корпус сверкает в любое время года. Изысканный циферблат с индикацией минут и часов обладает чувственной аурой самого женственного наряда. Часы представлены в семи различных вариантах, что, естественно, привлекает женщин, влюбленных в вечный гламур. T-Lady Lovely Summer Set. Кварцевые оригинальные наручные часы. В механизме 3 камня. Квадратный стальной корпус c полированной поверхностью. Циферблат выполнен по технологии Sunray (солнечные лучи). Закругленные прямоугольные стрелки в стиле Baton. Секундная стрелка отсутствует. Метки в виде штрихов. Рифленая заводная головка. Задняя крышка с гравировкой. Удобный кожаный ремешок с классической застежкой. В комплекте 4 ремешка.</t>
         </is>
       </c>
       <c r="H20" s="55" t="inlineStr">
@@ -2305,12 +2253,12 @@
       </c>
       <c r="I20" s="56" t="inlineStr">
         <is>
-          <t>Кварцевый</t>
+          <t>кварцевый</t>
         </is>
       </c>
       <c r="J20" s="55" t="inlineStr">
         <is>
-          <t>Ремешок из телячьей кожи</t>
+          <t>кожаный ремешок</t>
         </is>
       </c>
       <c r="K20" s="55" t="inlineStr">
@@ -2320,7 +2268,7 @@
       </c>
       <c r="L20" s="55" t="inlineStr">
         <is>
-          <t>Сапфировое</t>
+          <t>сапфировое</t>
         </is>
       </c>
       <c r="M20" s="58" t="n">
@@ -2341,16 +2289,8 @@
         <f>Q20*D20</f>
         <v/>
       </c>
-      <c r="S20" s="55" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="T20" s="55" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
+      <c r="S20" s="55" t="inlineStr"/>
+      <c r="T20" s="55" t="inlineStr"/>
       <c r="U20" s="55" t="n"/>
       <c r="V20" s="57" t="inlineStr">
         <is>
